--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760010.7848051598</v>
+        <v>755486.4129026366</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30165742.53815229</v>
+        <v>30165742.53815231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7430358.92517078</v>
+        <v>7430358.925170782</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>347.7744766995501</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>338.4509834561933</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.78416952972845</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T11" t="n">
         <v>210.1602450484006</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H12" t="n">
         <v>42.74230092603217</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T12" t="n">
         <v>136.2459098068972</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T13" t="n">
-        <v>84.78741672168259</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U13" t="n">
         <v>277.3347814691945</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>113.4515605610077</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>374.3348041188788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1624,7 +1624,7 @@
         <v>398.3411154877793</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>164.6073829537274</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>40.64545004439071</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.1543937174461</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>185.7798281627168</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>376.1643083589478</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>54.12369765139159</v>
       </c>
       <c r="G17" t="n">
         <v>398.3411154877793</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H18" t="n">
         <v>42.74230092603217</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T18" t="n">
         <v>136.2459098068972</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3530964763878</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>205.9683006336639</v>
       </c>
       <c r="U19" t="n">
         <v>277.3347814691945</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3411154877793</v>
       </c>
       <c r="H20" t="n">
-        <v>229.319732952314</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>109.1603221404717</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.06745424873364</v>
       </c>
       <c r="H21" t="n">
-        <v>42.74230092603218</v>
+        <v>42.74230092603217</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.66190257283603</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.40471915577929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.146508835688714</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.1543937174461</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>45.54821992446527</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>58.45383680435361</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3411154877793</v>
@@ -2371,22 +2371,22 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>63.5783884092053</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>82.9013858844164</v>
       </c>
       <c r="D25" t="n">
-        <v>123.1325218652092</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.7176533411321</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1598548985255</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>92.36375636733104</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>66.38997275162897</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.28519246631957</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H28" t="n">
         <v>134.5632308897331</v>
       </c>
       <c r="I28" t="n">
-        <v>72.40471915577928</v>
+        <v>35.8918708481028</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1598548985255</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33.57958683760265</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>333.0748201570759</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S31" t="n">
-        <v>11.53488016427978</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T31" t="n">
         <v>237.1598548985255</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>97.48053059984393</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>357.0260389580436</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>92.96663039919808</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>16.6619025728365</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1543937174461</v>
+        <v>146.0981110540126</v>
       </c>
       <c r="T34" t="n">
         <v>237.1598548985255</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>255.6149958056585</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>5.099231923954694</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>355.8215585042356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>88.61944136905329</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.5632308897331</v>
       </c>
       <c r="I37" t="n">
-        <v>72.40471915577928</v>
+        <v>46.75447647846544</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>361.5010926827451</v>
       </c>
       <c r="C38" t="n">
-        <v>80.94896345724813</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>144.1347287064769</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3347814691945</v>
+        <v>4.410457158612421</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>296.4830867339762</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>291.2600273900972</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3915,7 +3915,7 @@
         <v>163.7176533411321</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>72.40471915577928</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1598548985255</v>
+        <v>206.9918422265157</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>43.32450672784143</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3411154877793</v>
+        <v>291.2600273900972</v>
       </c>
       <c r="H44" t="n">
-        <v>152.4559210539051</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>150.1656884362649</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3347814691945</v>
+        <v>253.4987479940934</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.2235638618342</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="C11" t="n">
-        <v>393.2235638618342</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="D11" t="n">
-        <v>393.2235638618342</v>
+        <v>786.1706570380186</v>
       </c>
       <c r="E11" t="n">
-        <v>41.93621366026844</v>
+        <v>786.1706570380186</v>
       </c>
       <c r="F11" t="n">
-        <v>41.93621366026844</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G11" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H11" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I11" t="n">
-        <v>82.33329152904093</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J11" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K11" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475863</v>
       </c>
       <c r="L11" t="n">
-        <v>695.6031008100827</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N11" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O11" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P11" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R11" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S11" t="n">
-        <v>2037.432733993494</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T11" t="n">
-        <v>1825.149658187029</v>
+        <v>1825.14965818703</v>
       </c>
       <c r="U11" t="n">
-        <v>1566.952692726768</v>
+        <v>1566.952692726769</v>
       </c>
       <c r="V11" t="n">
-        <v>1209.463277853017</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="W11" t="n">
-        <v>813.0719281533643</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="X11" t="n">
-        <v>813.0719281533643</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="Y11" t="n">
-        <v>813.0719281533643</v>
+        <v>1209.463277853018</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H12" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I12" t="n">
-        <v>61.57150621104947</v>
+        <v>61.5715062110495</v>
       </c>
       <c r="J12" t="n">
-        <v>324.8265602149069</v>
+        <v>138.9817292615982</v>
       </c>
       <c r="K12" t="n">
-        <v>469.8331201450162</v>
+        <v>283.9882891917075</v>
       </c>
       <c r="L12" t="n">
-        <v>672.3397478297222</v>
+        <v>486.4949168764136</v>
       </c>
       <c r="M12" t="n">
-        <v>911.8009217952111</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N12" t="n">
         <v>1159.941325295414</v>
@@ -5138,7 +5138,7 @@
         <v>1383.330599615535</v>
       </c>
       <c r="P12" t="n">
-        <v>1559.478563339212</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q12" t="n">
         <v>1669.116942812768</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.589352182587</v>
+        <v>616.4590465614164</v>
       </c>
       <c r="C13" t="n">
-        <v>844.6167890615033</v>
+        <v>616.4590465614164</v>
       </c>
       <c r="D13" t="n">
-        <v>681.300016188274</v>
+        <v>453.1422736881871</v>
       </c>
       <c r="E13" t="n">
-        <v>515.0918103411275</v>
+        <v>286.9340678410406</v>
       </c>
       <c r="F13" t="n">
-        <v>343.2300361156879</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="G13" t="n">
-        <v>177.8586691044433</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="H13" t="n">
-        <v>41.93621366026844</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I13" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J13" t="n">
         <v>160.7936713882177</v>
@@ -5205,46 +5205,46 @@
         <v>488.1646742988834</v>
       </c>
       <c r="L13" t="n">
-        <v>595.5099370162836</v>
+        <v>971.8988306074486</v>
       </c>
       <c r="M13" t="n">
-        <v>1114.470581062106</v>
+        <v>1085.608830216314</v>
       </c>
       <c r="N13" t="n">
-        <v>1226.753658994335</v>
+        <v>1595.924830990424</v>
       </c>
       <c r="O13" t="n">
-        <v>1501.551779866079</v>
+        <v>1696.335550054516</v>
       </c>
       <c r="P13" t="n">
-        <v>1897.129130777106</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q13" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R13" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S13" t="n">
-        <v>2096.810683013422</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T13" t="n">
-        <v>2011.166827738995</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U13" t="n">
-        <v>1731.030684840819</v>
+        <v>1422.417723331437</v>
       </c>
       <c r="V13" t="n">
-        <v>1449.319217448848</v>
+        <v>1422.417723331437</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.319217448848</v>
+        <v>1147.56531950395</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.755320894653</v>
+        <v>1032.96778358374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1206.755320894653</v>
+        <v>806.6250152734819</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1573.051184348028</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.051184348028</v>
+        <v>1718.69471925698</v>
       </c>
       <c r="D14" t="n">
-        <v>1573.051184348028</v>
+        <v>1295.40209844198</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.074244495885</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="F14" t="n">
-        <v>721.9500626852854</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G14" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H14" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I14" t="n">
-        <v>82.33329152904093</v>
+        <v>82.33329152904116</v>
       </c>
       <c r="J14" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657158</v>
       </c>
       <c r="K14" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475865</v>
       </c>
       <c r="L14" t="n">
-        <v>695.6031008100827</v>
+        <v>695.6031008100831</v>
       </c>
       <c r="M14" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N14" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O14" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P14" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R14" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S14" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T14" t="n">
-        <v>1930.540599221778</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U14" t="n">
-        <v>1930.540599221778</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V14" t="n">
-        <v>1573.051184348028</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="W14" t="n">
-        <v>1573.051184348028</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="X14" t="n">
-        <v>1573.051184348028</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="Y14" t="n">
-        <v>1573.051184348028</v>
+        <v>2096.810683013423</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H15" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I15" t="n">
-        <v>85.02881205546132</v>
+        <v>61.5715062110495</v>
       </c>
       <c r="J15" t="n">
-        <v>430.282060499813</v>
+        <v>430.2820604998123</v>
       </c>
       <c r="K15" t="n">
-        <v>575.2886204299223</v>
+        <v>575.2886204299216</v>
       </c>
       <c r="L15" t="n">
-        <v>777.7952481146283</v>
+        <v>777.7952481146277</v>
       </c>
       <c r="M15" t="n">
         <v>1017.256422080117</v>
@@ -5372,7 +5372,7 @@
         <v>1265.39682558032</v>
       </c>
       <c r="O15" t="n">
-        <v>1488.786099900441</v>
+        <v>1488.78609990044</v>
       </c>
       <c r="P15" t="n">
         <v>1664.934063624117</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>629.2839004423093</v>
+        <v>917.7528690168359</v>
       </c>
       <c r="C16" t="n">
-        <v>629.2839004423093</v>
+        <v>917.7528690168359</v>
       </c>
       <c r="D16" t="n">
-        <v>629.2839004423093</v>
+        <v>754.4360961436066</v>
       </c>
       <c r="E16" t="n">
         <v>588.2278902964601</v>
@@ -5427,61 +5427,61 @@
         <v>416.3661160710205</v>
       </c>
       <c r="G16" t="n">
-        <v>250.9947490597759</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H16" t="n">
-        <v>115.072293615601</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I16" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J16" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K16" t="n">
-        <v>488.1646742988834</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L16" t="n">
-        <v>595.5099370162836</v>
+        <v>646.6945048452058</v>
       </c>
       <c r="M16" t="n">
-        <v>1114.470581062106</v>
+        <v>977.2524376758806</v>
       </c>
       <c r="N16" t="n">
-        <v>1401.141060801986</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O16" t="n">
-        <v>1501.551779866079</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P16" t="n">
-        <v>1897.129130777106</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q16" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R16" t="n">
-        <v>2089.591987219797</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S16" t="n">
-        <v>1934.890579424397</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T16" t="n">
-        <v>1934.890579424397</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="U16" t="n">
-        <v>1654.75443652622</v>
+        <v>1661.973132319846</v>
       </c>
       <c r="V16" t="n">
-        <v>1373.042969134249</v>
+        <v>1380.261664927875</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.190565306762</v>
+        <v>1105.409261100388</v>
       </c>
       <c r="X16" t="n">
-        <v>855.6266687525673</v>
+        <v>1105.409261100388</v>
       </c>
       <c r="Y16" t="n">
-        <v>629.2839004423093</v>
+        <v>917.7528690168359</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1527.038192333206</v>
+        <v>922.2639992623095</v>
       </c>
       <c r="C17" t="n">
-        <v>1527.038192333206</v>
+        <v>922.2639992623095</v>
       </c>
       <c r="D17" t="n">
-        <v>1527.038192333206</v>
+        <v>498.9713784473098</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.074244495885</v>
+        <v>498.9713784473098</v>
       </c>
       <c r="F17" t="n">
-        <v>721.9500626852854</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G17" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="H17" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I17" t="n">
         <v>82.33329152904093</v>
       </c>
       <c r="J17" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657155</v>
       </c>
       <c r="K17" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475863</v>
       </c>
       <c r="L17" t="n">
-        <v>695.6031008100827</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M17" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810844</v>
       </c>
       <c r="N17" t="n">
         <v>1306.679080869173</v>
@@ -5545,22 +5545,22 @@
         <v>2096.810683013422</v>
       </c>
       <c r="T17" t="n">
-        <v>1884.527607206957</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="U17" t="n">
-        <v>1884.527607206957</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="V17" t="n">
-        <v>1527.038192333206</v>
+        <v>1739.321268139672</v>
       </c>
       <c r="W17" t="n">
-        <v>1527.038192333206</v>
+        <v>1739.321268139672</v>
       </c>
       <c r="X17" t="n">
-        <v>1527.038192333206</v>
+        <v>1327.601269307419</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.038192333206</v>
+        <v>922.2639992623095</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H18" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I18" t="n">
-        <v>61.57150621104947</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J18" t="n">
-        <v>324.8265602149069</v>
+        <v>324.8265602149064</v>
       </c>
       <c r="K18" t="n">
-        <v>469.8331201450162</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L18" t="n">
-        <v>672.3397478297222</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M18" t="n">
-        <v>911.8009217952111</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N18" t="n">
         <v>1159.941325295414</v>
@@ -5612,7 +5612,7 @@
         <v>1383.330599615535</v>
       </c>
       <c r="P18" t="n">
-        <v>1559.478563339212</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q18" t="n">
         <v>1669.116942812768</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>820.1621078359019</v>
+        <v>385.7705510067921</v>
       </c>
       <c r="C19" t="n">
-        <v>820.1621078359019</v>
+        <v>213.797987885708</v>
       </c>
       <c r="D19" t="n">
-        <v>656.8453349626726</v>
+        <v>213.797987885708</v>
       </c>
       <c r="E19" t="n">
-        <v>490.6371291155261</v>
+        <v>213.797987885708</v>
       </c>
       <c r="F19" t="n">
-        <v>318.7753548900865</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="G19" t="n">
-        <v>153.4039878788419</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="H19" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I19" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="J19" t="n">
-        <v>160.7936713882177</v>
+        <v>119.4846397381152</v>
       </c>
       <c r="K19" t="n">
-        <v>488.1646742988834</v>
+        <v>199.5730335347588</v>
       </c>
       <c r="L19" t="n">
-        <v>595.5099370162836</v>
+        <v>306.9182962521592</v>
       </c>
       <c r="M19" t="n">
-        <v>1114.470581062106</v>
+        <v>825.8789402979812</v>
       </c>
       <c r="N19" t="n">
-        <v>1624.786581836215</v>
+        <v>1336.194941072091</v>
       </c>
       <c r="O19" t="n">
-        <v>1725.197300900308</v>
+        <v>1814.307984439387</v>
       </c>
       <c r="P19" t="n">
-        <v>1897.129130777106</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q19" t="n">
         <v>2096.810683013422</v>
@@ -5703,22 +5703,22 @@
         <v>2089.591987219797</v>
       </c>
       <c r="T19" t="n">
-        <v>2089.591987219797</v>
+        <v>1881.543198700945</v>
       </c>
       <c r="U19" t="n">
-        <v>1809.455844321621</v>
+        <v>1601.407055802769</v>
       </c>
       <c r="V19" t="n">
-        <v>1527.744376929649</v>
+        <v>1319.695588410797</v>
       </c>
       <c r="W19" t="n">
-        <v>1252.891973102162</v>
+        <v>1044.84318458331</v>
       </c>
       <c r="X19" t="n">
-        <v>1010.328076547967</v>
+        <v>802.2792880291156</v>
       </c>
       <c r="Y19" t="n">
-        <v>1010.328076547967</v>
+        <v>575.9365197188577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1527.038192333206</v>
+        <v>1574.827732524128</v>
       </c>
       <c r="C20" t="n">
-        <v>1527.038192333206</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="D20" t="n">
-        <v>1527.038192333206</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="E20" t="n">
-        <v>1101.061252481064</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="F20" t="n">
-        <v>675.9370706704638</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="G20" t="n">
-        <v>273.5723075514947</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="H20" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I20" t="n">
-        <v>82.33329152904082</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J20" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K20" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L20" t="n">
-        <v>695.6031008100824</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M20" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N20" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O20" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P20" t="n">
         <v>1836.746925560031</v>
@@ -5782,22 +5782,22 @@
         <v>2096.810683013422</v>
       </c>
       <c r="T20" t="n">
-        <v>1884.527607206957</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="U20" t="n">
-        <v>1884.527607206957</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="V20" t="n">
-        <v>1527.038192333206</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="W20" t="n">
-        <v>1527.038192333206</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="X20" t="n">
-        <v>1527.038192333206</v>
+        <v>1685.09068418117</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.038192333206</v>
+        <v>1574.827732524128</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H21" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I21" t="n">
-        <v>85.02881205546132</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J21" t="n">
-        <v>162.43903510601</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K21" t="n">
-        <v>469.8331201450166</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L21" t="n">
-        <v>672.3397478297226</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M21" t="n">
-        <v>911.8009217952115</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N21" t="n">
         <v>1159.941325295414</v>
@@ -5849,7 +5849,7 @@
         <v>1383.330599615535</v>
       </c>
       <c r="P21" t="n">
-        <v>1559.478563339212</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q21" t="n">
         <v>1669.116942812768</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.2840850540892</v>
+        <v>380.1169826284989</v>
       </c>
       <c r="C22" t="n">
-        <v>414.3115219330052</v>
+        <v>208.1444195074149</v>
       </c>
       <c r="D22" t="n">
-        <v>250.994749059776</v>
+        <v>208.1444195074149</v>
       </c>
       <c r="E22" t="n">
-        <v>250.994749059776</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="F22" t="n">
-        <v>250.994749059776</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="G22" t="n">
-        <v>250.994749059776</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="H22" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I22" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="J22" t="n">
-        <v>160.7936713882176</v>
+        <v>160.7936713882177</v>
       </c>
       <c r="K22" t="n">
         <v>488.1646742988834</v>
@@ -5925,37 +5925,37 @@
         <v>1197.891908148543</v>
       </c>
       <c r="O22" t="n">
-        <v>1652.925277243978</v>
+        <v>1501.551779866079</v>
       </c>
       <c r="P22" t="n">
-        <v>2048.502628155005</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q22" t="n">
         <v>2096.810683013422</v>
       </c>
       <c r="R22" t="n">
-        <v>2089.591987219797</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S22" t="n">
-        <v>1934.890579424397</v>
+        <v>1942.109275218022</v>
       </c>
       <c r="T22" t="n">
-        <v>1695.335170435987</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U22" t="n">
-        <v>1415.199027537811</v>
+        <v>1422.417723331436</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.48756014584</v>
+        <v>1140.706255939465</v>
       </c>
       <c r="W22" t="n">
-        <v>858.6351563183525</v>
+        <v>865.8538521119781</v>
       </c>
       <c r="X22" t="n">
-        <v>812.6268533643472</v>
+        <v>623.2899555577832</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.2840850540892</v>
+        <v>396.9471872475252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.095463948385</v>
+        <v>1145.242683500285</v>
       </c>
       <c r="C23" t="n">
-        <v>1573.051184348028</v>
+        <v>1145.242683500285</v>
       </c>
       <c r="D23" t="n">
-        <v>1573.051184348028</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.074244495885</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="F23" t="n">
         <v>721.9500626852854</v>
@@ -5983,22 +5983,22 @@
         <v>319.5852995663163</v>
       </c>
       <c r="H23" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I23" t="n">
-        <v>82.33329152904085</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J23" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K23" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L23" t="n">
-        <v>695.6031008100827</v>
+        <v>695.6031008100828</v>
       </c>
       <c r="M23" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810845</v>
       </c>
       <c r="N23" t="n">
         <v>1306.679080869173</v>
@@ -6016,25 +6016,25 @@
         <v>2096.810683013422</v>
       </c>
       <c r="S23" t="n">
-        <v>2037.432733993494</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T23" t="n">
-        <v>2037.432733993494</v>
+        <v>1825.149658187029</v>
       </c>
       <c r="U23" t="n">
-        <v>2037.432733993494</v>
+        <v>1566.952692726768</v>
       </c>
       <c r="V23" t="n">
-        <v>2037.432733993494</v>
+        <v>1209.463277853018</v>
       </c>
       <c r="W23" t="n">
-        <v>2037.432733993494</v>
+        <v>1145.242683500285</v>
       </c>
       <c r="X23" t="n">
-        <v>2037.432733993494</v>
+        <v>1145.242683500285</v>
       </c>
       <c r="Y23" t="n">
-        <v>1632.095463948385</v>
+        <v>1145.242683500285</v>
       </c>
     </row>
     <row r="24">
@@ -6062,22 +6062,22 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H24" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I24" t="n">
-        <v>61.57150621104948</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J24" t="n">
-        <v>138.9817292615982</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K24" t="n">
-        <v>283.9882891917075</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L24" t="n">
-        <v>486.4949168764135</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M24" t="n">
-        <v>725.9560908419024</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N24" t="n">
         <v>1159.941325295414</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>669.864634352076</v>
+        <v>629.1163343647218</v>
       </c>
       <c r="C25" t="n">
-        <v>497.892071230992</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="D25" t="n">
-        <v>373.5157865186595</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="E25" t="n">
-        <v>207.307580671513</v>
+        <v>379.1693548969527</v>
       </c>
       <c r="F25" t="n">
-        <v>207.307580671513</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="G25" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="H25" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I25" t="n">
-        <v>41.93621366026844</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="J25" t="n">
         <v>82.8719547399968</v>
       </c>
       <c r="K25" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L25" t="n">
-        <v>893.9771139592277</v>
+        <v>399.4127361158079</v>
       </c>
       <c r="M25" t="n">
-        <v>1288.857982869757</v>
+        <v>513.1227357246735</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.141060801986</v>
+        <v>1023.438736498783</v>
       </c>
       <c r="O25" t="n">
         <v>1501.551779866079</v>
       </c>
       <c r="P25" t="n">
-        <v>1897.129130777106</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q25" t="n">
         <v>2096.810683013422</v>
@@ -6174,25 +6174,25 @@
         <v>2089.591987219797</v>
       </c>
       <c r="S25" t="n">
-        <v>1934.890579424397</v>
+        <v>2089.591987219797</v>
       </c>
       <c r="T25" t="n">
-        <v>1695.335170435987</v>
+        <v>1850.036578231388</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.335170435987</v>
+        <v>1569.900435333211</v>
       </c>
       <c r="V25" t="n">
-        <v>1413.623703044016</v>
+        <v>1288.18896794124</v>
       </c>
       <c r="W25" t="n">
-        <v>1138.771299216529</v>
+        <v>1288.18896794124</v>
       </c>
       <c r="X25" t="n">
-        <v>896.2074026623339</v>
+        <v>1045.625071387045</v>
       </c>
       <c r="Y25" t="n">
-        <v>669.864634352076</v>
+        <v>819.2823030767875</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>511.3615553162365</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="C26" t="n">
-        <v>511.3615553162365</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="D26" t="n">
-        <v>511.3615553162365</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="E26" t="n">
-        <v>511.3615553162365</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="F26" t="n">
-        <v>511.3615553162365</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="G26" t="n">
-        <v>108.9967921972674</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="H26" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I26" t="n">
-        <v>82.33329152904082</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J26" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K26" t="n">
-        <v>428.1728161475861</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L26" t="n">
-        <v>695.6031008100828</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M26" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N26" t="n">
         <v>1306.679080869173</v>
@@ -6256,22 +6256,22 @@
         <v>2096.810683013423</v>
       </c>
       <c r="T26" t="n">
-        <v>2096.810683013423</v>
+        <v>1884.527607206958</v>
       </c>
       <c r="U26" t="n">
-        <v>2096.810683013423</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="V26" t="n">
-        <v>1739.321268139672</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="W26" t="n">
-        <v>1342.929918440019</v>
+        <v>1229.939292047043</v>
       </c>
       <c r="X26" t="n">
-        <v>931.2099196077666</v>
+        <v>818.2192932147907</v>
       </c>
       <c r="Y26" t="n">
-        <v>931.2099196077666</v>
+        <v>412.882023169681</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>85.02881205546134</v>
       </c>
       <c r="J27" t="n">
-        <v>430.2820604998124</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K27" t="n">
-        <v>575.2886204299217</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L27" t="n">
-        <v>777.7952481146278</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M27" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N27" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O27" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P27" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R27" t="n">
         <v>1815.41703571448</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>594.8290864062996</v>
+        <v>1052.843767180671</v>
       </c>
       <c r="C28" t="n">
-        <v>422.8565232852155</v>
+        <v>880.8712040595869</v>
       </c>
       <c r="D28" t="n">
-        <v>422.8565232852155</v>
+        <v>717.5544311863576</v>
       </c>
       <c r="E28" t="n">
-        <v>422.8565232852155</v>
+        <v>551.3462253392112</v>
       </c>
       <c r="F28" t="n">
-        <v>250.994749059776</v>
+        <v>379.4844511137716</v>
       </c>
       <c r="G28" t="n">
-        <v>250.994749059776</v>
+        <v>214.113084102527</v>
       </c>
       <c r="H28" t="n">
-        <v>115.0722936156011</v>
+        <v>78.1906286583521</v>
       </c>
       <c r="I28" t="n">
         <v>41.93621366026846</v>
@@ -6390,7 +6390,7 @@
         <v>410.2429576506625</v>
       </c>
       <c r="L28" t="n">
-        <v>893.9771139592277</v>
+        <v>893.9771139592278</v>
       </c>
       <c r="M28" t="n">
         <v>1007.687113568093</v>
@@ -6399,37 +6399,37 @@
         <v>1518.003114342203</v>
       </c>
       <c r="O28" t="n">
-        <v>1618.413833406296</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P28" t="n">
-        <v>2013.991184317323</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q28" t="n">
         <v>2096.810683013423</v>
       </c>
       <c r="R28" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S28" t="n">
-        <v>1934.890579424398</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T28" t="n">
-        <v>1695.335170435988</v>
+        <v>1857.255274025013</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.335170435988</v>
+        <v>1577.119131126837</v>
       </c>
       <c r="V28" t="n">
-        <v>1413.623703044017</v>
+        <v>1295.407663734866</v>
       </c>
       <c r="W28" t="n">
-        <v>1138.77129921653</v>
+        <v>1295.407663734866</v>
       </c>
       <c r="X28" t="n">
-        <v>896.2074026623349</v>
+        <v>1052.843767180671</v>
       </c>
       <c r="Y28" t="n">
-        <v>669.8646343520769</v>
+        <v>1052.843767180671</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>353.5040741497534</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="C29" t="n">
-        <v>353.5040741497534</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="D29" t="n">
-        <v>319.5852995663163</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="E29" t="n">
-        <v>319.5852995663163</v>
+        <v>869.4251585898373</v>
       </c>
       <c r="F29" t="n">
-        <v>319.5852995663163</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G29" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="H29" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I29" t="n">
-        <v>82.33329152904116</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J29" t="n">
-        <v>217.439149065716</v>
+        <v>217.4391490657151</v>
       </c>
       <c r="K29" t="n">
-        <v>428.1728161475867</v>
+        <v>428.172816147586</v>
       </c>
       <c r="L29" t="n">
-        <v>695.6031008100832</v>
+        <v>695.6031008100827</v>
       </c>
       <c r="M29" t="n">
-        <v>998.3171043810851</v>
+        <v>998.3171043810847</v>
       </c>
       <c r="N29" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O29" t="n">
-        <v>1595.689571197983</v>
+        <v>1595.689571197982</v>
       </c>
       <c r="P29" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560031</v>
       </c>
       <c r="Q29" t="n">
-        <v>2009.942888284124</v>
+        <v>2009.942888284123</v>
       </c>
       <c r="R29" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S29" t="n">
         <v>2037.432733993495</v>
       </c>
       <c r="T29" t="n">
-        <v>1825.14965818703</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U29" t="n">
-        <v>1566.952692726769</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="V29" t="n">
-        <v>1566.952692726769</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="W29" t="n">
-        <v>1170.561343027116</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="X29" t="n">
-        <v>758.841344194863</v>
+        <v>1625.712735161242</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.5040741497534</v>
+        <v>1289.273522881367</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H30" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I30" t="n">
         <v>85.02881205546134</v>
       </c>
       <c r="J30" t="n">
-        <v>162.43903510601</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K30" t="n">
-        <v>307.4455950361193</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L30" t="n">
-        <v>509.9522227208254</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M30" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N30" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O30" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R30" t="n">
         <v>1815.41703571448</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349.8312322255273</v>
+        <v>618.5136406994317</v>
       </c>
       <c r="C31" t="n">
-        <v>177.8586691044434</v>
+        <v>618.5136406994317</v>
       </c>
       <c r="D31" t="n">
-        <v>177.8586691044434</v>
+        <v>618.5136406994317</v>
       </c>
       <c r="E31" t="n">
-        <v>177.8586691044434</v>
+        <v>452.3054348522852</v>
       </c>
       <c r="F31" t="n">
-        <v>177.8586691044434</v>
+        <v>280.4436606268457</v>
       </c>
       <c r="G31" t="n">
-        <v>177.8586691044434</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="H31" t="n">
-        <v>41.93621366026846</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I31" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="J31" t="n">
-        <v>82.87195473999681</v>
+        <v>82.8719547399968</v>
       </c>
       <c r="K31" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L31" t="n">
-        <v>893.9771139592277</v>
+        <v>458.2917936300581</v>
       </c>
       <c r="M31" t="n">
-        <v>1007.687113568093</v>
+        <v>977.2524376758802</v>
       </c>
       <c r="N31" t="n">
-        <v>1174.812233876682</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O31" t="n">
-        <v>1652.925277243979</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P31" t="n">
         <v>2048.502628155006</v>
       </c>
       <c r="Q31" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="R31" t="n">
-        <v>2096.810683013423</v>
+        <v>2089.591987219797</v>
       </c>
       <c r="S31" t="n">
-        <v>2085.15928890809</v>
+        <v>1934.890579424397</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.60387991968</v>
+        <v>1695.335170435987</v>
       </c>
       <c r="U31" t="n">
-        <v>1565.467737021504</v>
+        <v>1415.199027537811</v>
       </c>
       <c r="V31" t="n">
-        <v>1283.756269629533</v>
+        <v>1133.48756014584</v>
       </c>
       <c r="W31" t="n">
-        <v>1008.903865802046</v>
+        <v>1133.48756014584</v>
       </c>
       <c r="X31" t="n">
-        <v>766.3399692478509</v>
+        <v>1035.022377721755</v>
       </c>
       <c r="Y31" t="n">
-        <v>539.997200937593</v>
+        <v>808.6796094114973</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1676.962318721893</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="C32" t="n">
-        <v>1316.32995613801</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="D32" t="n">
-        <v>893.0373353230107</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="E32" t="n">
-        <v>467.0603954708682</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="F32" t="n">
-        <v>41.93621366026846</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="G32" t="n">
-        <v>41.93621366026846</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="H32" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I32" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904105</v>
       </c>
       <c r="J32" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K32" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475864</v>
       </c>
       <c r="L32" t="n">
-        <v>695.6031008100829</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M32" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N32" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O32" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P32" t="n">
         <v>1836.746925560032</v>
@@ -6727,25 +6727,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S32" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T32" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U32" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="V32" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="W32" t="n">
-        <v>2096.810683013423</v>
+        <v>1641.041384293842</v>
       </c>
       <c r="X32" t="n">
-        <v>2096.810683013423</v>
+        <v>1547.135697021925</v>
       </c>
       <c r="Y32" t="n">
-        <v>2096.810683013423</v>
+        <v>1141.798426976815</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>85.02881205546134</v>
       </c>
       <c r="J33" t="n">
-        <v>430.2820604998124</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K33" t="n">
-        <v>575.2886204299217</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L33" t="n">
-        <v>777.7952481146278</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M33" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N33" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O33" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R33" t="n">
         <v>1815.41703571448</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>396.9471872475257</v>
+        <v>213.9087767813525</v>
       </c>
       <c r="C34" t="n">
-        <v>224.9746241264417</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="D34" t="n">
-        <v>208.1444195074149</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="E34" t="n">
         <v>41.93621366026846</v>
@@ -6858,16 +6858,16 @@
         <v>41.93621366026846</v>
       </c>
       <c r="J34" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K34" t="n">
-        <v>240.8820651848613</v>
+        <v>313.7115026491233</v>
       </c>
       <c r="L34" t="n">
-        <v>724.6162214934266</v>
+        <v>797.4456589576886</v>
       </c>
       <c r="M34" t="n">
-        <v>838.326221102292</v>
+        <v>911.1556585665542</v>
       </c>
       <c r="N34" t="n">
         <v>1023.438736498783</v>
@@ -6885,25 +6885,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S34" t="n">
-        <v>1942.109275218023</v>
+        <v>1949.236833463915</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.553866229613</v>
+        <v>1709.681424475506</v>
       </c>
       <c r="U34" t="n">
-        <v>1422.417723331437</v>
+        <v>1429.545281577329</v>
       </c>
       <c r="V34" t="n">
-        <v>1140.706255939466</v>
+        <v>1147.833814185358</v>
       </c>
       <c r="W34" t="n">
-        <v>865.8538521119785</v>
+        <v>872.981410357871</v>
       </c>
       <c r="X34" t="n">
-        <v>623.2899555577836</v>
+        <v>630.4175138036761</v>
       </c>
       <c r="Y34" t="n">
-        <v>396.9471872475257</v>
+        <v>404.0747454934181</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.93621366026846</v>
+        <v>745.5622394184588</v>
       </c>
       <c r="C35" t="n">
-        <v>41.93621366026846</v>
+        <v>745.5622394184588</v>
       </c>
       <c r="D35" t="n">
-        <v>41.93621366026846</v>
+        <v>745.5622394184588</v>
       </c>
       <c r="E35" t="n">
-        <v>41.93621366026846</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="F35" t="n">
-        <v>41.93621366026846</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="G35" t="n">
-        <v>41.93621366026846</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="H35" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="I35" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904085</v>
       </c>
       <c r="J35" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K35" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475858</v>
       </c>
       <c r="L35" t="n">
-        <v>695.6031008100829</v>
+        <v>695.6031008100827</v>
       </c>
       <c r="M35" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810843</v>
       </c>
       <c r="N35" t="n">
-        <v>1306.679080869173</v>
+        <v>1306.679080869172</v>
       </c>
       <c r="O35" t="n">
         <v>1595.689571197982</v>
       </c>
       <c r="P35" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560031</v>
       </c>
       <c r="Q35" t="n">
-        <v>2009.942888284124</v>
+        <v>2009.942888284123</v>
       </c>
       <c r="R35" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S35" t="n">
-        <v>2037.432733993495</v>
+        <v>2037.432733993494</v>
       </c>
       <c r="T35" t="n">
-        <v>1825.14965818703</v>
+        <v>1825.149658187029</v>
       </c>
       <c r="U35" t="n">
-        <v>1566.952692726769</v>
+        <v>1566.952692726768</v>
       </c>
       <c r="V35" t="n">
-        <v>1209.463277853018</v>
+        <v>1561.801953409642</v>
       </c>
       <c r="W35" t="n">
-        <v>813.0719281533652</v>
+        <v>1165.410603709989</v>
       </c>
       <c r="X35" t="n">
-        <v>401.3519293211124</v>
+        <v>1165.410603709989</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.93621366026846</v>
+        <v>1165.410603709989</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H36" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="I36" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546133</v>
       </c>
       <c r="J36" t="n">
-        <v>430.2820604998124</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K36" t="n">
-        <v>575.2886204299217</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L36" t="n">
-        <v>777.7952481146278</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M36" t="n">
-        <v>1017.256422080117</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N36" t="n">
-        <v>1265.39682558032</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.78609990044</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.934063624117</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.572443097673</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R36" t="n">
         <v>1815.41703571448</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.6878833999128</v>
+        <v>396.9471872475248</v>
       </c>
       <c r="C37" t="n">
-        <v>675.6878833999128</v>
+        <v>396.9471872475248</v>
       </c>
       <c r="D37" t="n">
-        <v>512.3711105266835</v>
+        <v>396.9471872475248</v>
       </c>
       <c r="E37" t="n">
-        <v>512.3711105266835</v>
+        <v>396.9471872475248</v>
       </c>
       <c r="F37" t="n">
-        <v>340.5093363012439</v>
+        <v>225.0854130220852</v>
       </c>
       <c r="G37" t="n">
-        <v>250.994749059776</v>
+        <v>225.0854130220852</v>
       </c>
       <c r="H37" t="n">
-        <v>115.0722936156011</v>
+        <v>89.1629575779103</v>
       </c>
       <c r="I37" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="J37" t="n">
-        <v>82.87195473999681</v>
+        <v>82.8719547399968</v>
       </c>
       <c r="K37" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L37" t="n">
-        <v>893.9771139592277</v>
+        <v>646.6945048452058</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.93775800505</v>
+        <v>977.2524376758797</v>
       </c>
       <c r="N37" t="n">
-        <v>1525.220835937279</v>
+        <v>1487.568438449989</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.925277243979</v>
+        <v>1965.681481817285</v>
       </c>
       <c r="P37" t="n">
-        <v>2048.502628155006</v>
+        <v>2048.502628155005</v>
       </c>
       <c r="Q37" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="R37" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S37" t="n">
-        <v>1942.109275218023</v>
+        <v>1942.109275218022</v>
       </c>
       <c r="T37" t="n">
-        <v>1702.553866229613</v>
+        <v>1702.553866229612</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.417723331437</v>
+        <v>1422.417723331436</v>
       </c>
       <c r="V37" t="n">
-        <v>1140.706255939466</v>
+        <v>1140.706255939465</v>
       </c>
       <c r="W37" t="n">
-        <v>865.8538521119785</v>
+        <v>865.8538521119776</v>
       </c>
       <c r="X37" t="n">
-        <v>865.8538521119785</v>
+        <v>623.2899555577827</v>
       </c>
       <c r="Y37" t="n">
-        <v>865.8538521119785</v>
+        <v>396.9471872475248</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>401.3519293211124</v>
+        <v>1319.938065309711</v>
       </c>
       <c r="C38" t="n">
-        <v>319.5852995663163</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="D38" t="n">
-        <v>319.5852995663163</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="E38" t="n">
-        <v>319.5852995663163</v>
+        <v>467.0603954708682</v>
       </c>
       <c r="F38" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="G38" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H38" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I38" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904116</v>
       </c>
       <c r="J38" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K38" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475864</v>
       </c>
       <c r="L38" t="n">
-        <v>695.6031008100829</v>
+        <v>695.6031008100831</v>
       </c>
       <c r="M38" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N38" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O38" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P38" t="n">
         <v>1836.746925560032</v>
@@ -7201,25 +7201,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S38" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T38" t="n">
-        <v>1825.14965818703</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U38" t="n">
-        <v>1566.952692726769</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V38" t="n">
-        <v>1209.463277853018</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="W38" t="n">
-        <v>813.0719281533652</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="X38" t="n">
-        <v>401.3519293211124</v>
+        <v>1685.09068418117</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.3519293211124</v>
+        <v>1685.09068418117</v>
       </c>
     </row>
     <row r="39">
@@ -7262,10 +7262,10 @@
         <v>509.9522227208254</v>
       </c>
       <c r="M39" t="n">
-        <v>749.4133966863143</v>
+        <v>749.4133966863144</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.941325295414</v>
+        <v>997.5538001865174</v>
       </c>
       <c r="O39" t="n">
         <v>1383.330599615535</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1069.944700183723</v>
+        <v>708.8051225129728</v>
       </c>
       <c r="C40" t="n">
-        <v>897.9721370626387</v>
+        <v>536.8325593918888</v>
       </c>
       <c r="D40" t="n">
-        <v>734.6553641894094</v>
+        <v>373.5157865186595</v>
       </c>
       <c r="E40" t="n">
-        <v>568.4471583422629</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="F40" t="n">
-        <v>396.5853841168233</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="G40" t="n">
-        <v>250.994749059776</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H40" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I40" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="J40" t="n">
-        <v>119.4846397381156</v>
+        <v>160.7936713882177</v>
       </c>
       <c r="K40" t="n">
-        <v>199.5730335347592</v>
+        <v>488.1646742988834</v>
       </c>
       <c r="L40" t="n">
-        <v>306.9182962521595</v>
+        <v>971.8988306074486</v>
       </c>
       <c r="M40" t="n">
-        <v>825.8789402979817</v>
+        <v>1490.859474653271</v>
       </c>
       <c r="N40" t="n">
-        <v>1336.194941072091</v>
+        <v>1865.270762753193</v>
       </c>
       <c r="O40" t="n">
-        <v>1814.307984439387</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P40" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q40" t="n">
         <v>2096.810683013423</v>
@@ -7359,25 +7359,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S40" t="n">
-        <v>2096.810683013423</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T40" t="n">
-        <v>2096.810683013423</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.674540115247</v>
+        <v>1698.098858998691</v>
       </c>
       <c r="V40" t="n">
-        <v>1534.963072723275</v>
+        <v>1416.38739160672</v>
       </c>
       <c r="W40" t="n">
-        <v>1260.110668895788</v>
+        <v>1141.534987779233</v>
       </c>
       <c r="X40" t="n">
-        <v>1260.110668895788</v>
+        <v>898.9710912250384</v>
       </c>
       <c r="Y40" t="n">
-        <v>1260.110668895788</v>
+        <v>898.9710912250384</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1617.584369701965</v>
+        <v>1743.23068612471</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.683639715265</v>
+        <v>1316.32995613801</v>
       </c>
       <c r="D41" t="n">
-        <v>767.3910189002656</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="E41" t="n">
-        <v>341.4140790481232</v>
+        <v>467.0603954708682</v>
       </c>
       <c r="F41" t="n">
         <v>41.93621366026846</v>
@@ -7411,19 +7411,19 @@
         <v>82.33329152904116</v>
       </c>
       <c r="J41" t="n">
-        <v>217.439149065716</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K41" t="n">
         <v>428.1728161475867</v>
       </c>
       <c r="L41" t="n">
-        <v>695.6031008100832</v>
+        <v>695.6031008100836</v>
       </c>
       <c r="M41" t="n">
-        <v>998.3171043810851</v>
+        <v>998.3171043810854</v>
       </c>
       <c r="N41" t="n">
-        <v>1306.679080869173</v>
+        <v>1306.679080869174</v>
       </c>
       <c r="O41" t="n">
         <v>1595.689571197983</v>
@@ -7453,10 +7453,10 @@
         <v>2037.432733993495</v>
       </c>
       <c r="X41" t="n">
-        <v>2037.432733993495</v>
+        <v>1743.23068612471</v>
       </c>
       <c r="Y41" t="n">
-        <v>2037.432733993495</v>
+        <v>1743.23068612471</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>61.5715062110495</v>
       </c>
       <c r="J42" t="n">
-        <v>138.9817292615982</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K42" t="n">
-        <v>283.9882891917075</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L42" t="n">
-        <v>486.4949168764135</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M42" t="n">
-        <v>725.9560908419024</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N42" t="n">
-        <v>974.0964943421054</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O42" t="n">
-        <v>1197.485768662226</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P42" t="n">
-        <v>1373.633732385903</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q42" t="n">
         <v>1669.116942812768</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.72543213792</v>
+        <v>953.802976693745</v>
       </c>
       <c r="C43" t="n">
-        <v>917.7528690168359</v>
+        <v>781.830413572661</v>
       </c>
       <c r="D43" t="n">
-        <v>754.4360961436066</v>
+        <v>618.5136406994317</v>
       </c>
       <c r="E43" t="n">
-        <v>588.2278902964601</v>
+        <v>452.3054348522852</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3661160710205</v>
+        <v>280.4436606268457</v>
       </c>
       <c r="G43" t="n">
-        <v>250.994749059776</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="H43" t="n">
         <v>115.0722936156011</v>
@@ -7572,19 +7572,19 @@
         <v>160.7936713882177</v>
       </c>
       <c r="K43" t="n">
-        <v>240.8820651848613</v>
+        <v>488.1646742988834</v>
       </c>
       <c r="L43" t="n">
-        <v>348.2273279022615</v>
+        <v>971.8988306074486</v>
       </c>
       <c r="M43" t="n">
-        <v>867.1879719480837</v>
+        <v>1085.608830216314</v>
       </c>
       <c r="N43" t="n">
-        <v>1377.503972722193</v>
+        <v>1197.891908148543</v>
       </c>
       <c r="O43" t="n">
-        <v>1814.307984439387</v>
+        <v>1501.55177986608</v>
       </c>
       <c r="P43" t="n">
         <v>1897.129130777107</v>
@@ -7593,28 +7593,28 @@
         <v>2096.810683013423</v>
       </c>
       <c r="R43" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S43" t="n">
-        <v>1934.890579424398</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T43" t="n">
-        <v>1695.335170435988</v>
+        <v>1887.72801409775</v>
       </c>
       <c r="U43" t="n">
-        <v>1415.199027537812</v>
+        <v>1887.72801409775</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.48756014584</v>
+        <v>1887.72801409775</v>
       </c>
       <c r="W43" t="n">
-        <v>1133.48756014584</v>
+        <v>1612.875610270263</v>
       </c>
       <c r="X43" t="n">
-        <v>1089.72543213792</v>
+        <v>1370.311713716069</v>
       </c>
       <c r="Y43" t="n">
-        <v>1089.72543213792</v>
+        <v>1143.968945405811</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1023.421038442267</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="C44" t="n">
-        <v>1023.421038442267</v>
+        <v>1610.532004006795</v>
       </c>
       <c r="D44" t="n">
-        <v>1023.421038442267</v>
+        <v>1187.239383191796</v>
       </c>
       <c r="E44" t="n">
-        <v>1023.421038442267</v>
+        <v>761.2624433396533</v>
       </c>
       <c r="F44" t="n">
-        <v>598.2968566316669</v>
+        <v>336.1382615290535</v>
       </c>
       <c r="G44" t="n">
-        <v>195.9320935126978</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H44" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I44" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J44" t="n">
-        <v>217.4391490657149</v>
+        <v>217.4391490657154</v>
       </c>
       <c r="K44" t="n">
-        <v>428.172816147586</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L44" t="n">
-        <v>695.6031008100831</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M44" t="n">
         <v>998.317104381085</v>
@@ -7663,37 +7663,37 @@
         <v>1306.679080869173</v>
       </c>
       <c r="O44" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P44" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q44" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R44" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S44" t="n">
         <v>2037.432733993495</v>
       </c>
       <c r="T44" t="n">
-        <v>1825.149658187029</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U44" t="n">
-        <v>1825.149658187029</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="V44" t="n">
-        <v>1825.149658187029</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="W44" t="n">
-        <v>1428.758308487376</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="X44" t="n">
-        <v>1428.758308487376</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="Y44" t="n">
-        <v>1023.421038442267</v>
+        <v>2037.432733993495</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H45" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I45" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J45" t="n">
-        <v>138.9817292615982</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K45" t="n">
-        <v>283.9882891917075</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L45" t="n">
-        <v>486.4949168764136</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M45" t="n">
-        <v>1005.455560922236</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N45" t="n">
-        <v>1253.595964422439</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O45" t="n">
-        <v>1476.985238742559</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P45" t="n">
-        <v>1653.133202466236</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1762.771581939792</v>
+        <v>1669.116942812768</v>
       </c>
       <c r="R45" t="n">
         <v>1815.41703571448</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1002.900498743327</v>
+        <v>625.1148368092711</v>
       </c>
       <c r="C46" t="n">
-        <v>830.9279356222435</v>
+        <v>453.1422736881871</v>
       </c>
       <c r="D46" t="n">
-        <v>667.6111627490142</v>
+        <v>453.1422736881871</v>
       </c>
       <c r="E46" t="n">
-        <v>501.4029569018677</v>
+        <v>286.9340678410406</v>
       </c>
       <c r="F46" t="n">
-        <v>329.5411826764281</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="G46" t="n">
-        <v>177.8586691044433</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="H46" t="n">
-        <v>41.93621366026845</v>
+        <v>115.0722936156011</v>
       </c>
       <c r="I46" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J46" t="n">
         <v>160.7936713882177</v>
@@ -7815,43 +7815,43 @@
         <v>971.8988306074486</v>
       </c>
       <c r="M46" t="n">
-        <v>1490.859474653271</v>
+        <v>1085.608830216314</v>
       </c>
       <c r="N46" t="n">
-        <v>1603.1425525855</v>
+        <v>1197.891908148543</v>
       </c>
       <c r="O46" t="n">
-        <v>1703.553271649593</v>
+        <v>1676.00495151584</v>
       </c>
       <c r="P46" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q46" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R46" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S46" t="n">
-        <v>1942.109275218022</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T46" t="n">
-        <v>1942.109275218022</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.973132319846</v>
+        <v>1840.751341605248</v>
       </c>
       <c r="V46" t="n">
-        <v>1661.973132319846</v>
+        <v>1559.039874213277</v>
       </c>
       <c r="W46" t="n">
-        <v>1661.973132319846</v>
+        <v>1284.18747038579</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.409235765651</v>
+        <v>1041.623573831595</v>
       </c>
       <c r="Y46" t="n">
-        <v>1193.066467455393</v>
+        <v>815.2808055213368</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>187.7220514679886</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>187.7220514679882</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>409.344085289855</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>176.1488907147989</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>119.1640751362331</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>270.548510498791</v>
+        <v>294.242758826479</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>409.344085289855</v>
+        <v>219.038316385666</v>
       </c>
       <c r="N16" t="n">
-        <v>176.1488907147991</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>187.7220514679886</v>
+        <v>164.0278031402994</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>36.98251009910945</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>409.344085289855</v>
+        <v>409.3440852898551</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>90.01079145361484</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K21" t="n">
-        <v>164.0278031403003</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>358.204697001355</v>
+        <v>205.302174397417</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>187.7220514679884</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>130.4112372341082</v>
       </c>
       <c r="M25" t="n">
-        <v>284.0109790925892</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>270.5485104987903</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>350.7754024353438</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.86004428048788</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>270.5485104987903</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>189.8850327030478</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>409.3440852898551</v>
       </c>
       <c r="N31" t="n">
-        <v>55.39600240036343</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>270.5485104987903</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>152.273893042912</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>73.56508834773952</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>294.2427588264791</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>409.3440852898552</v>
+        <v>219.038316385665</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>27.56941640667313</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10913,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>164.0278031402997</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>164.0278031402996</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>36.9825100991099</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>409.3440852898552</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>264.7759698663569</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>187.7220514679882</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>187.7220514679885</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,22 +11220,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>409.3440852898552</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>339.7912047001022</v>
+        <v>205.3021743974175</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>282.3226970508415</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.92006177563722</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>409.3440852898551</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>111.8734472624181</v>
+        <v>292.6025558600471</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>73.94269375407089</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>82.42195653630046</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.8725950469874</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I13" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.3724381768429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>126.6866970276452</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>48.29691856795404</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.78416952972845</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T14" t="n">
-        <v>45.55286209467323</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U14" t="n">
         <v>255.6149958056585</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23658,10 +23658,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>123.9006737442843</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.29951246443861</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>45.55286209467323</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>366.7492423411022</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.78416952972845</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U17" t="n">
         <v>255.6149958056585</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H19" t="n">
-        <v>24.21013441334536</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I19" t="n">
         <v>72.40471915577928</v>
@@ -23943,7 +23943,7 @@
         <v>153.1543937174461</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1598548985255</v>
+        <v>31.19155426486157</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>45.5528620946734</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.78416952972846</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U20" t="n">
         <v>255.6149958056585</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>292.1235752041869</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>171.602406452109</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24144,10 +24144,10 @@
         <v>163.7176533411321</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>194.5900376641877</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>364.1778858824792</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>328.8490477934513</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>87.35145160545675</v>
       </c>
       <c r="D25" t="n">
-        <v>38.55108327928782</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>323.2861242812837</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24457,10 +24457,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H26" t="n">
-        <v>208.4826222953584</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.9791165586254</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>36.51284830767648</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>385.480107769247</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>68.20907718758264</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I31" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>141.6195135531663</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>142.657726988809</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>65.60568372878924</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.1602450484006</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>314.6361684447321</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0217025716605</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.056282663433478</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25162,7 +25162,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>398.3411154877793</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>348.8152888010583</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.462338840423</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>75.09821197207883</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>25.65024267731383</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>54.14878796586964</v>
       </c>
       <c r="C38" t="n">
-        <v>341.6827592295847</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3411154877793</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>19.58292463465523</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>272.9243243105821</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>124.3898532585175</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3411154877793</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>116.3427714538331</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>30.16801267200975</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>196.8137508608115</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>107.0810880976822</v>
       </c>
       <c r="H44" t="n">
-        <v>122.4166739930823</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U44" t="n">
         <v>255.6149958056585</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>13.55196490486722</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I46" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>7.146508835688692</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T46" t="n">
         <v>237.1598548985255</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>23.83603347510109</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>371610.8042281978</v>
+        <v>371610.804228198</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>371610.8042281978</v>
+        <v>371610.8042281979</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>371610.8042281977</v>
+        <v>371610.8042281978</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>371610.8042281977</v>
+        <v>371610.8042281978</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>371610.804228198</v>
+        <v>371610.8042281979</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>371610.804228198</v>
+        <v>371610.8042281978</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>371610.804228198</v>
+        <v>371610.8042281979</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>371610.8042281979</v>
+        <v>371610.8042281978</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>371610.8042281979</v>
+        <v>371610.8042281978</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>371610.8042281978</v>
+        <v>371610.804228198</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415986.0355340961</v>
+        <v>415986.0355340962</v>
       </c>
       <c r="C2" t="n">
-        <v>415986.035534096</v>
+        <v>415986.0355340962</v>
       </c>
       <c r="D2" t="n">
-        <v>415986.0355340961</v>
+        <v>415986.0355340962</v>
       </c>
       <c r="E2" t="n">
-        <v>244275.1516432987</v>
+        <v>244275.151643299</v>
       </c>
       <c r="F2" t="n">
+        <v>244275.1516432989</v>
+      </c>
+      <c r="G2" t="n">
+        <v>244275.1516432989</v>
+      </c>
+      <c r="H2" t="n">
+        <v>244275.1516432989</v>
+      </c>
+      <c r="I2" t="n">
         <v>244275.1516432988</v>
       </c>
-      <c r="G2" t="n">
-        <v>244275.1516432988</v>
-      </c>
-      <c r="H2" t="n">
-        <v>244275.1516432988</v>
-      </c>
-      <c r="I2" t="n">
-        <v>244275.1516432987</v>
-      </c>
       <c r="J2" t="n">
-        <v>244275.1516432989</v>
+        <v>244275.151643299</v>
       </c>
       <c r="K2" t="n">
         <v>244275.1516432989</v>
@@ -26346,7 +26346,7 @@
         <v>244275.1516432989</v>
       </c>
       <c r="M2" t="n">
-        <v>244275.151643299</v>
+        <v>244275.1516432989</v>
       </c>
       <c r="N2" t="n">
         <v>244275.1516432989</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505372.9974992513</v>
+        <v>505372.9974992515</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130633.4023624192</v>
+        <v>130633.4023624193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
         <v>26692.7652212414</v>
       </c>
       <c r="F4" t="n">
-        <v>26692.76522124141</v>
+        <v>26692.7652212414</v>
       </c>
       <c r="G4" t="n">
         <v>26692.7652212414</v>
       </c>
       <c r="H4" t="n">
-        <v>26692.76522124141</v>
+        <v>26692.7652212414</v>
       </c>
       <c r="I4" t="n">
         <v>26692.76522124139</v>
@@ -26447,19 +26447,19 @@
         <v>26692.7652212414</v>
       </c>
       <c r="L4" t="n">
-        <v>26692.76522124141</v>
+        <v>26692.7652212414</v>
       </c>
       <c r="M4" t="n">
+        <v>26692.76522124139</v>
+      </c>
+      <c r="N4" t="n">
         <v>26692.7652212414</v>
       </c>
-      <c r="N4" t="n">
-        <v>26692.76522124141</v>
-      </c>
       <c r="O4" t="n">
-        <v>26692.76522124141</v>
+        <v>26692.7652212414</v>
       </c>
       <c r="P4" t="n">
-        <v>26692.76522124139</v>
+        <v>26692.7652212414</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42470.5925503977</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="F5" t="n">
-        <v>42470.5925503977</v>
+        <v>42470.59255039771</v>
       </c>
       <c r="G5" t="n">
-        <v>42470.5925503977</v>
+        <v>42470.59255039771</v>
       </c>
       <c r="H5" t="n">
-        <v>42470.59255039769</v>
+        <v>42470.59255039771</v>
       </c>
       <c r="I5" t="n">
-        <v>42470.5925503977</v>
+        <v>42470.59255039771</v>
       </c>
       <c r="J5" t="n">
         <v>42470.59255039771</v>
@@ -26502,7 +26502,7 @@
         <v>42470.59255039771</v>
       </c>
       <c r="M5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.5925503977</v>
       </c>
       <c r="N5" t="n">
         <v>42470.59255039771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21339.23662595494</v>
+        <v>21317.56456121707</v>
       </c>
       <c r="C6" t="n">
-        <v>71419.11774679497</v>
+        <v>71397.44568205728</v>
       </c>
       <c r="D6" t="n">
-        <v>71419.11774679509</v>
+        <v>71397.44568205716</v>
       </c>
       <c r="E6" t="n">
-        <v>-330261.2036275917</v>
+        <v>-330874.9821885047</v>
       </c>
       <c r="F6" t="n">
-        <v>175111.7938716597</v>
+        <v>174498.0153107467</v>
       </c>
       <c r="G6" t="n">
-        <v>175111.7938716597</v>
+        <v>174498.0153107467</v>
       </c>
       <c r="H6" t="n">
-        <v>175111.7938716597</v>
+        <v>174498.0153107468</v>
       </c>
       <c r="I6" t="n">
-        <v>175111.7938716597</v>
+        <v>174498.0153107466</v>
       </c>
       <c r="J6" t="n">
-        <v>175111.7938716598</v>
+        <v>174498.0153107468</v>
       </c>
       <c r="K6" t="n">
-        <v>175111.7938716598</v>
+        <v>174498.0153107467</v>
       </c>
       <c r="L6" t="n">
-        <v>175111.7938716598</v>
+        <v>174498.0153107467</v>
       </c>
       <c r="M6" t="n">
-        <v>44478.39150924067</v>
+        <v>43864.61294832744</v>
       </c>
       <c r="N6" t="n">
-        <v>175111.7938716598</v>
+        <v>174498.0153107467</v>
       </c>
       <c r="O6" t="n">
-        <v>175111.7938716598</v>
+        <v>174498.0153107467</v>
       </c>
       <c r="P6" t="n">
-        <v>175111.7938716598</v>
+        <v>174498.0153107467</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>486.1958792932882</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="F3" t="n">
-        <v>486.1958792932882</v>
+        <v>486.1958792932883</v>
       </c>
       <c r="G3" t="n">
-        <v>486.1958792932882</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="H3" t="n">
-        <v>486.1958792932881</v>
+        <v>486.1958792932883</v>
       </c>
       <c r="I3" t="n">
         <v>486.1958792932883</v>
@@ -26798,31 +26798,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="F4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="G4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="H4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="I4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="J4" t="n">
         <v>524.2026707533557</v>
       </c>
       <c r="K4" t="n">
-        <v>524.2026707533557</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="L4" t="n">
         <v>524.2026707533557</v>
       </c>
       <c r="M4" t="n">
-        <v>524.2026707533557</v>
+        <v>524.2026707533555</v>
       </c>
       <c r="N4" t="n">
         <v>524.2026707533557</v>
@@ -26831,7 +26831,7 @@
         <v>524.2026707533557</v>
       </c>
       <c r="P4" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2249312873563</v>
+        <v>434.2249312873565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H11" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I11" t="n">
-        <v>75.35303170433968</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J11" t="n">
-        <v>165.8905226539446</v>
+        <v>165.8905226539447</v>
       </c>
       <c r="K11" t="n">
-        <v>248.6268907764969</v>
+        <v>248.626890776497</v>
       </c>
       <c r="L11" t="n">
-        <v>308.4436431018114</v>
+        <v>308.4436431018115</v>
       </c>
       <c r="M11" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N11" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O11" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P11" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R11" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S11" t="n">
-        <v>44.53945165586254</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T11" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U11" t="n">
         <v>0.1563645038933187</v>
@@ -31837,16 +31837,16 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I12" t="n">
-        <v>36.00601558917276</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J12" t="n">
-        <v>98.80325882883702</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K12" t="n">
         <v>168.8705064900094</v>
       </c>
       <c r="L12" t="n">
-        <v>227.0672358907003</v>
+        <v>227.0672358907004</v>
       </c>
       <c r="M12" t="n">
         <v>264.9767542148421</v>
@@ -31855,25 +31855,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O12" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P12" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q12" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R12" t="n">
-        <v>64.9300836535452</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S12" t="n">
-        <v>19.42490140384032</v>
+        <v>19.42490140384033</v>
       </c>
       <c r="T12" t="n">
-        <v>4.215226538401242</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06880130367357855</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8767466675780606</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H13" t="n">
-        <v>7.795074917194036</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I13" t="n">
-        <v>26.3661634213475</v>
+        <v>26.36616342134751</v>
       </c>
       <c r="J13" t="n">
-        <v>61.98598939776888</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K13" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M13" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N13" t="n">
         <v>134.1661514121955</v>
@@ -31937,22 +31937,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P13" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.41557777328651</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R13" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S13" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T13" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H14" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I14" t="n">
-        <v>75.35303170433968</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J14" t="n">
-        <v>165.8905226539446</v>
+        <v>165.8905226539447</v>
       </c>
       <c r="K14" t="n">
-        <v>248.6268907764969</v>
+        <v>248.626890776497</v>
       </c>
       <c r="L14" t="n">
-        <v>308.4436431018114</v>
+        <v>308.4436431018115</v>
       </c>
       <c r="M14" t="n">
         <v>343.2029836782215</v>
@@ -32013,10 +32013,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O14" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P14" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q14" t="n">
         <v>211.0700914976204</v>
@@ -32025,10 +32025,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S14" t="n">
-        <v>44.53945165586254</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T14" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U14" t="n">
         <v>0.1563645038933187</v>
@@ -32074,16 +32074,16 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I15" t="n">
-        <v>36.00601558917276</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J15" t="n">
-        <v>98.80325882883702</v>
+        <v>98.80325882883703</v>
       </c>
       <c r="K15" t="n">
         <v>168.8705064900094</v>
       </c>
       <c r="L15" t="n">
-        <v>227.0672358907003</v>
+        <v>227.0672358907004</v>
       </c>
       <c r="M15" t="n">
         <v>264.9767542148421</v>
@@ -32092,7 +32092,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O15" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P15" t="n">
         <v>199.6980772893508</v>
@@ -32101,16 +32101,16 @@
         <v>133.4928761410553</v>
       </c>
       <c r="R15" t="n">
-        <v>64.9300836535452</v>
+        <v>64.93008365354521</v>
       </c>
       <c r="S15" t="n">
-        <v>19.42490140384032</v>
+        <v>19.42490140384033</v>
       </c>
       <c r="T15" t="n">
-        <v>4.215226538401242</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06880130367357855</v>
+        <v>0.06880130367357856</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8767466675780606</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H16" t="n">
-        <v>7.795074917194036</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I16" t="n">
-        <v>26.3661634213475</v>
+        <v>26.36616342134751</v>
       </c>
       <c r="J16" t="n">
-        <v>61.98598939776888</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K16" t="n">
         <v>101.8620219240692</v>
@@ -32165,7 +32165,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M16" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N16" t="n">
         <v>134.1661514121955</v>
@@ -32174,22 +32174,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P16" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.41557777328651</v>
+        <v>73.41557777328653</v>
       </c>
       <c r="R16" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S16" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T16" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H17" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I17" t="n">
-        <v>75.35303170433968</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J17" t="n">
-        <v>165.8905226539446</v>
+        <v>165.8905226539447</v>
       </c>
       <c r="K17" t="n">
-        <v>248.6268907764969</v>
+        <v>248.626890776497</v>
       </c>
       <c r="L17" t="n">
-        <v>308.4436431018114</v>
+        <v>308.4436431018115</v>
       </c>
       <c r="M17" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N17" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O17" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P17" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R17" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S17" t="n">
-        <v>44.53945165586254</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T17" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U17" t="n">
         <v>0.1563645038933187</v>
@@ -32311,16 +32311,16 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I18" t="n">
-        <v>36.00601558917276</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J18" t="n">
-        <v>98.80325882883702</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K18" t="n">
         <v>168.8705064900094</v>
       </c>
       <c r="L18" t="n">
-        <v>227.0672358907003</v>
+        <v>227.0672358907004</v>
       </c>
       <c r="M18" t="n">
         <v>264.9767542148421</v>
@@ -32329,25 +32329,25 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O18" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P18" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q18" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R18" t="n">
-        <v>64.9300836535452</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S18" t="n">
-        <v>19.42490140384032</v>
+        <v>19.42490140384033</v>
       </c>
       <c r="T18" t="n">
-        <v>4.215226538401242</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06880130367357855</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8767466675780606</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H19" t="n">
-        <v>7.795074917194036</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I19" t="n">
-        <v>26.3661634213475</v>
+        <v>26.36616342134751</v>
       </c>
       <c r="J19" t="n">
-        <v>61.98598939776888</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K19" t="n">
         <v>101.8620219240692</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M19" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N19" t="n">
         <v>134.1661514121955</v>
@@ -32411,22 +32411,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P19" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.41557777328651</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R19" t="n">
-        <v>39.42171834400988</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S19" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T19" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.954556298666483</v>
+        <v>1.954556298666484</v>
       </c>
       <c r="H20" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I20" t="n">
-        <v>75.35303170433967</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J20" t="n">
-        <v>165.8905226539446</v>
+        <v>165.8905226539447</v>
       </c>
       <c r="K20" t="n">
-        <v>248.6268907764969</v>
+        <v>248.626890776497</v>
       </c>
       <c r="L20" t="n">
-        <v>308.4436431018113</v>
+        <v>308.4436431018115</v>
       </c>
       <c r="M20" t="n">
-        <v>343.2029836782214</v>
+        <v>343.2029836782215</v>
       </c>
       <c r="N20" t="n">
-        <v>348.7563667618076</v>
+        <v>348.7563667618077</v>
       </c>
       <c r="O20" t="n">
-        <v>329.3207475669427</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P20" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q20" t="n">
         <v>211.0700914976204</v>
@@ -32499,13 +32499,13 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S20" t="n">
-        <v>44.53945165586254</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T20" t="n">
-        <v>8.556070197412534</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1563645038933186</v>
+        <v>0.1563645038933187</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.045779815838393</v>
+        <v>1.045779815838394</v>
       </c>
       <c r="H21" t="n">
         <v>10.10003137928133</v>
       </c>
       <c r="I21" t="n">
-        <v>36.00601558917275</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J21" t="n">
-        <v>98.80325882883699</v>
+        <v>98.80325882883703</v>
       </c>
       <c r="K21" t="n">
-        <v>168.8705064900093</v>
+        <v>168.8705064900094</v>
       </c>
       <c r="L21" t="n">
-        <v>227.0672358907003</v>
+        <v>227.0672358907004</v>
       </c>
       <c r="M21" t="n">
-        <v>264.976754214842</v>
+        <v>264.9767542148421</v>
       </c>
       <c r="N21" t="n">
-        <v>271.9899004359688</v>
+        <v>271.9899004359689</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P21" t="n">
-        <v>199.6980772893507</v>
+        <v>199.6980772893508</v>
       </c>
       <c r="Q21" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R21" t="n">
-        <v>64.93008365354518</v>
+        <v>64.93008365354521</v>
       </c>
       <c r="S21" t="n">
-        <v>19.42490140384032</v>
+        <v>19.42490140384033</v>
       </c>
       <c r="T21" t="n">
-        <v>4.215226538401241</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06880130367357853</v>
+        <v>0.06880130367357856</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8767466675780604</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H22" t="n">
-        <v>7.795074917194034</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I22" t="n">
-        <v>26.3661634213475</v>
+        <v>26.36616342134751</v>
       </c>
       <c r="J22" t="n">
-        <v>61.98598939776887</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K22" t="n">
         <v>101.8620219240692</v>
@@ -32639,31 +32639,31 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M22" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N22" t="n">
         <v>134.1661514121955</v>
       </c>
       <c r="O22" t="n">
-        <v>123.9241562500335</v>
+        <v>123.9241562500336</v>
       </c>
       <c r="P22" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.4155777732865</v>
+        <v>73.41557777328653</v>
       </c>
       <c r="R22" t="n">
-        <v>39.42171834400987</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S22" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T22" t="n">
-        <v>3.74609939783353</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04782254550425789</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H23" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I23" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J23" t="n">
         <v>165.8905226539447</v>
@@ -32724,10 +32724,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O23" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P23" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q23" t="n">
         <v>211.0700914976204</v>
@@ -32736,10 +32736,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S23" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T23" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U23" t="n">
         <v>0.1563645038933187</v>
@@ -32785,7 +32785,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I24" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J24" t="n">
         <v>98.80325882883703</v>
@@ -32803,7 +32803,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O24" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P24" t="n">
         <v>199.6980772893508</v>
@@ -32818,7 +32818,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T24" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U24" t="n">
         <v>0.06880130367357856</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H25" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I25" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J25" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K25" t="n">
         <v>101.8620219240692</v>
@@ -32876,7 +32876,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M25" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N25" t="n">
         <v>134.1661514121955</v>
@@ -32885,22 +32885,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P25" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q25" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R25" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S25" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T25" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H26" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I26" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J26" t="n">
         <v>165.8905226539447</v>
@@ -32961,10 +32961,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O26" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P26" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q26" t="n">
         <v>211.0700914976204</v>
@@ -32973,10 +32973,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S26" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T26" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U26" t="n">
         <v>0.1563645038933187</v>
@@ -33022,7 +33022,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I27" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J27" t="n">
         <v>98.80325882883703</v>
@@ -33040,7 +33040,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O27" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P27" t="n">
         <v>199.6980772893508</v>
@@ -33055,7 +33055,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T27" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U27" t="n">
         <v>0.06880130367357856</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H28" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I28" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J28" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K28" t="n">
         <v>101.8620219240692</v>
@@ -33113,7 +33113,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M28" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N28" t="n">
         <v>134.1661514121955</v>
@@ -33122,22 +33122,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P28" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q28" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R28" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S28" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T28" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H29" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I29" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J29" t="n">
         <v>165.8905226539447</v>
@@ -33198,10 +33198,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O29" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P29" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q29" t="n">
         <v>211.0700914976204</v>
@@ -33210,10 +33210,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S29" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T29" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U29" t="n">
         <v>0.1563645038933187</v>
@@ -33259,7 +33259,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I30" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J30" t="n">
         <v>98.80325882883703</v>
@@ -33277,7 +33277,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O30" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P30" t="n">
         <v>199.6980772893508</v>
@@ -33292,7 +33292,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T30" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U30" t="n">
         <v>0.06880130367357856</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H31" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I31" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J31" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K31" t="n">
         <v>101.8620219240692</v>
@@ -33350,7 +33350,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M31" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N31" t="n">
         <v>134.1661514121955</v>
@@ -33359,22 +33359,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P31" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q31" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R31" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S31" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T31" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H32" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I32" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J32" t="n">
         <v>165.8905226539447</v>
@@ -33435,10 +33435,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O32" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P32" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q32" t="n">
         <v>211.0700914976204</v>
@@ -33447,10 +33447,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S32" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T32" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U32" t="n">
         <v>0.1563645038933187</v>
@@ -33496,7 +33496,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I33" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J33" t="n">
         <v>98.80325882883703</v>
@@ -33514,7 +33514,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O33" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P33" t="n">
         <v>199.6980772893508</v>
@@ -33529,7 +33529,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T33" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U33" t="n">
         <v>0.06880130367357856</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H34" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I34" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J34" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K34" t="n">
         <v>101.8620219240692</v>
@@ -33587,7 +33587,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M34" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N34" t="n">
         <v>134.1661514121955</v>
@@ -33596,22 +33596,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P34" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q34" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R34" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S34" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T34" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H35" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I35" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J35" t="n">
         <v>165.8905226539447</v>
@@ -33672,10 +33672,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O35" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P35" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q35" t="n">
         <v>211.0700914976204</v>
@@ -33684,10 +33684,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S35" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T35" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U35" t="n">
         <v>0.1563645038933187</v>
@@ -33733,7 +33733,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I36" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J36" t="n">
         <v>98.80325882883703</v>
@@ -33751,7 +33751,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O36" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P36" t="n">
         <v>199.6980772893508</v>
@@ -33766,7 +33766,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T36" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U36" t="n">
         <v>0.06880130367357856</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H37" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I37" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J37" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K37" t="n">
         <v>101.8620219240692</v>
@@ -33824,7 +33824,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M37" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N37" t="n">
         <v>134.1661514121955</v>
@@ -33833,22 +33833,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P37" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q37" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R37" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S37" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T37" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H38" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I38" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J38" t="n">
         <v>165.8905226539447</v>
@@ -33909,10 +33909,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O38" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P38" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q38" t="n">
         <v>211.0700914976204</v>
@@ -33921,10 +33921,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S38" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T38" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U38" t="n">
         <v>0.1563645038933187</v>
@@ -33970,7 +33970,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I39" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J39" t="n">
         <v>98.80325882883703</v>
@@ -33988,7 +33988,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O39" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P39" t="n">
         <v>199.6980772893508</v>
@@ -34003,7 +34003,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T39" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U39" t="n">
         <v>0.06880130367357856</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H40" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I40" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J40" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K40" t="n">
         <v>101.8620219240692</v>
@@ -34061,7 +34061,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M40" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N40" t="n">
         <v>134.1661514121955</v>
@@ -34070,22 +34070,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P40" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q40" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R40" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S40" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T40" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H41" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I41" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J41" t="n">
         <v>165.8905226539447</v>
@@ -34146,10 +34146,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O41" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P41" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q41" t="n">
         <v>211.0700914976204</v>
@@ -34158,10 +34158,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S41" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T41" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U41" t="n">
         <v>0.1563645038933187</v>
@@ -34207,7 +34207,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I42" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J42" t="n">
         <v>98.80325882883703</v>
@@ -34225,7 +34225,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O42" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P42" t="n">
         <v>199.6980772893508</v>
@@ -34240,7 +34240,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T42" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U42" t="n">
         <v>0.06880130367357856</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H43" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I43" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J43" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K43" t="n">
         <v>101.8620219240692</v>
@@ -34298,7 +34298,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M43" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N43" t="n">
         <v>134.1661514121955</v>
@@ -34307,22 +34307,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P43" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q43" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R43" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S43" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T43" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.80512916037618</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J11" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K11" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L11" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M11" t="n">
-        <v>305.7717207787896</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N11" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O11" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P11" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q11" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R11" t="n">
-        <v>87.74524720131214</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.83362883917276</v>
+        <v>19.83362883917277</v>
       </c>
       <c r="J12" t="n">
-        <v>265.9141959634923</v>
+        <v>78.19214449550371</v>
       </c>
       <c r="K12" t="n">
-        <v>146.471272656676</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L12" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M12" t="n">
-        <v>241.8799737025141</v>
+        <v>429.6020251705023</v>
       </c>
       <c r="N12" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O12" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P12" t="n">
-        <v>177.9272360845221</v>
+        <v>177.9272360845222</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7458378520768</v>
@@ -35573,19 +35573,19 @@
         <v>330.6777807178441</v>
       </c>
       <c r="L13" t="n">
-        <v>108.4295583004043</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M13" t="n">
-        <v>524.2026707533555</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O13" t="n">
-        <v>277.5738594664081</v>
+        <v>101.4249687516092</v>
       </c>
       <c r="P13" t="n">
-        <v>399.5730817283107</v>
+        <v>202.8217987096877</v>
       </c>
       <c r="Q13" t="n">
         <v>201.69853761244</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.80512916037618</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J14" t="n">
         <v>136.4705631683581</v>
@@ -35655,22 +35655,22 @@
         <v>270.1316006691885</v>
       </c>
       <c r="M14" t="n">
-        <v>305.7717207787896</v>
+        <v>305.7717207787897</v>
       </c>
       <c r="N14" t="n">
         <v>311.4767439273617</v>
       </c>
       <c r="O14" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P14" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q14" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R14" t="n">
-        <v>87.74524720131214</v>
+        <v>87.74524720131217</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.52787716686149</v>
+        <v>19.83362883917277</v>
       </c>
       <c r="J15" t="n">
-        <v>348.7406549942946</v>
+        <v>372.4349033219826</v>
       </c>
       <c r="K15" t="n">
-        <v>146.471272656676</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L15" t="n">
         <v>204.5521491764708</v>
@@ -35737,19 +35737,19 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N15" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O15" t="n">
         <v>225.6457316364854</v>
       </c>
       <c r="P15" t="n">
-        <v>177.9272360845221</v>
+        <v>177.9272360845222</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7458378520768</v>
       </c>
       <c r="R15" t="n">
-        <v>41.25716425940105</v>
+        <v>41.25716425940107</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K16" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L16" t="n">
-        <v>108.4295583004043</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M16" t="n">
-        <v>524.2026707533555</v>
+        <v>333.8969018491666</v>
       </c>
       <c r="N16" t="n">
-        <v>289.5661411513942</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O16" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P16" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.80512916037618</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J17" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K17" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L17" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M17" t="n">
-        <v>305.7717207787896</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N17" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O17" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P17" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q17" t="n">
         <v>174.9454168930224</v>
       </c>
       <c r="R17" t="n">
-        <v>87.74524720131214</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.83362883917276</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J18" t="n">
-        <v>265.9141959634923</v>
+        <v>242.2199476358031</v>
       </c>
       <c r="K18" t="n">
-        <v>146.471272656676</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L18" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M18" t="n">
         <v>241.8799737025141</v>
       </c>
       <c r="N18" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O18" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P18" t="n">
-        <v>177.9272360845221</v>
+        <v>177.9272360845222</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7458378520768</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.0580381090396</v>
+        <v>78.33174351297649</v>
       </c>
       <c r="K19" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135724</v>
       </c>
       <c r="L19" t="n">
-        <v>108.4295583004043</v>
+        <v>108.4295583004044</v>
       </c>
       <c r="M19" t="n">
-        <v>524.2026707533555</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="N19" t="n">
-        <v>515.4707078526357</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O19" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P19" t="n">
-        <v>173.6685150270694</v>
+        <v>83.65772357345459</v>
       </c>
       <c r="Q19" t="n">
         <v>201.69853761244</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.80512916037617</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J20" t="n">
         <v>136.4705631683581</v>
       </c>
       <c r="K20" t="n">
-        <v>212.8622899816875</v>
+        <v>212.8622899816876</v>
       </c>
       <c r="L20" t="n">
-        <v>270.1316006691884</v>
+        <v>270.1316006691885</v>
       </c>
       <c r="M20" t="n">
-        <v>305.7717207787896</v>
+        <v>305.7717207787897</v>
       </c>
       <c r="N20" t="n">
-        <v>311.4767439273616</v>
+        <v>311.4767439273617</v>
       </c>
       <c r="O20" t="n">
-        <v>291.9297882109186</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P20" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q20" t="n">
-        <v>174.9454168930223</v>
+        <v>174.9454168930224</v>
       </c>
       <c r="R20" t="n">
-        <v>87.74524720131211</v>
+        <v>87.74524720131217</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.52787716686149</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J21" t="n">
-        <v>78.19214449550365</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K21" t="n">
-        <v>310.4990757969763</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L21" t="n">
-        <v>204.5521491764707</v>
+        <v>204.5521491764708</v>
       </c>
       <c r="M21" t="n">
-        <v>241.879973702514</v>
+        <v>241.8799737025141</v>
       </c>
       <c r="N21" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O21" t="n">
-        <v>225.6457316364853</v>
+        <v>225.6457316364854</v>
       </c>
       <c r="P21" t="n">
-        <v>177.9272360845221</v>
+        <v>177.9272360845222</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7458378520768</v>
       </c>
       <c r="R21" t="n">
-        <v>147.7778716178917</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>330.6777807178441</v>
       </c>
       <c r="L22" t="n">
-        <v>488.6203599076416</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M22" t="n">
-        <v>114.8585854635005</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N22" t="n">
         <v>113.4172504365951</v>
       </c>
       <c r="O22" t="n">
-        <v>459.6296657529641</v>
+        <v>306.7271431490262</v>
       </c>
       <c r="P22" t="n">
         <v>399.5730817283107</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.79601500850156</v>
+        <v>201.69853761244</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J23" t="n">
         <v>136.4705631683581</v>
@@ -36372,10 +36372,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O23" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P23" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q23" t="n">
         <v>174.9454168930224</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J24" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K24" t="n">
         <v>146.4712726566761</v>
@@ -36448,7 +36448,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N24" t="n">
-        <v>438.3689236904156</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O24" t="n">
         <v>225.6457316364854</v>
@@ -36518,19 +36518,19 @@
         <v>41.34923341386703</v>
       </c>
       <c r="K25" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L25" t="n">
-        <v>488.6203599076416</v>
+        <v>238.8407955345126</v>
       </c>
       <c r="M25" t="n">
-        <v>398.8695645560898</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N25" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O25" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P25" t="n">
         <v>399.5730817283107</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J26" t="n">
         <v>136.4705631683581</v>
@@ -36609,10 +36609,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O26" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P26" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q26" t="n">
         <v>174.9454168930224</v>
@@ -36673,7 +36673,7 @@
         <v>43.5278771668615</v>
       </c>
       <c r="J27" t="n">
-        <v>348.740654994294</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K27" t="n">
         <v>146.4712726566761</v>
@@ -36685,7 +36685,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N27" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O27" t="n">
         <v>225.6457316364854</v>
@@ -36697,7 +36697,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R27" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>330.6777807178441</v>
       </c>
       <c r="L28" t="n">
-        <v>488.6203599076416</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M28" t="n">
-        <v>114.8585854635005</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N28" t="n">
         <v>515.4707078526358</v>
       </c>
       <c r="O28" t="n">
-        <v>101.4249687516091</v>
+        <v>452.200371186953</v>
       </c>
       <c r="P28" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.65605928898947</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J29" t="n">
         <v>136.4705631683581</v>
@@ -36846,10 +36846,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O29" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P29" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q29" t="n">
         <v>174.9454168930224</v>
@@ -36910,7 +36910,7 @@
         <v>43.5278771668615</v>
       </c>
       <c r="J30" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K30" t="n">
         <v>146.4712726566761</v>
@@ -36919,10 +36919,10 @@
         <v>204.5521491764708</v>
       </c>
       <c r="M30" t="n">
-        <v>512.4284842013044</v>
+        <v>241.8799737025141</v>
       </c>
       <c r="N30" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O30" t="n">
         <v>225.6457316364854</v>
@@ -36934,7 +36934,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R30" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>41.34923341386703</v>
       </c>
       <c r="K31" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L31" t="n">
-        <v>488.6203599076416</v>
+        <v>298.3145910034522</v>
       </c>
       <c r="M31" t="n">
-        <v>114.8585854635005</v>
+        <v>524.2026707533556</v>
       </c>
       <c r="N31" t="n">
-        <v>168.8132528369586</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O31" t="n">
-        <v>482.942468047774</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P31" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q31" t="n">
         <v>48.79601500850158</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J32" t="n">
         <v>136.4705631683581</v>
@@ -37083,10 +37083,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O32" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P32" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q32" t="n">
         <v>174.9454168930224</v>
@@ -37147,7 +37147,7 @@
         <v>43.5278771668615</v>
       </c>
       <c r="J33" t="n">
-        <v>348.740654994294</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K33" t="n">
         <v>146.4712726566761</v>
@@ -37159,7 +37159,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N33" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O33" t="n">
         <v>225.6457316364854</v>
@@ -37171,7 +37171,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R33" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K34" t="n">
-        <v>80.89736747135721</v>
+        <v>233.1712605142692</v>
       </c>
       <c r="L34" t="n">
-        <v>488.6203599076416</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M34" t="n">
-        <v>114.8585854635005</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N34" t="n">
-        <v>186.9823387843346</v>
+        <v>113.4172504365951</v>
       </c>
       <c r="O34" t="n">
-        <v>482.942468047774</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P34" t="n">
         <v>399.5730817283107</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J35" t="n">
         <v>136.4705631683581</v>
@@ -37320,10 +37320,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O35" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P35" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q35" t="n">
         <v>174.9454168930224</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J36" t="n">
-        <v>372.4349033219827</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K36" t="n">
         <v>146.4712726566761</v>
@@ -37396,7 +37396,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N36" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O36" t="n">
         <v>225.6457316364854</v>
@@ -37408,7 +37408,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R36" t="n">
-        <v>41.25716425940107</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>41.34923341386703</v>
       </c>
       <c r="K37" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L37" t="n">
-        <v>488.6203599076416</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M37" t="n">
-        <v>524.2026707533557</v>
+        <v>333.8969018491656</v>
       </c>
       <c r="N37" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O37" t="n">
-        <v>128.9943851582823</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P37" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q37" t="n">
         <v>48.79601500850158</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J38" t="n">
         <v>136.4705631683581</v>
@@ -37557,10 +37557,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O38" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P38" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q38" t="n">
         <v>174.9454168930224</v>
@@ -37633,10 +37633,10 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N39" t="n">
-        <v>414.6746753627269</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O39" t="n">
-        <v>225.6457316364854</v>
+        <v>389.673534776785</v>
       </c>
       <c r="P39" t="n">
         <v>177.9272360845222</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33174351297693</v>
+        <v>120.0580381090396</v>
       </c>
       <c r="K40" t="n">
-        <v>80.89736747135721</v>
+        <v>330.6777807178441</v>
       </c>
       <c r="L40" t="n">
-        <v>108.4295583004043</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M40" t="n">
         <v>524.2026707533557</v>
       </c>
       <c r="N40" t="n">
-        <v>515.4707078526358</v>
+        <v>378.1932203029521</v>
       </c>
       <c r="O40" t="n">
-        <v>482.942468047774</v>
+        <v>101.4249687516091</v>
       </c>
       <c r="P40" t="n">
-        <v>83.65772357345456</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q40" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J41" t="n">
         <v>136.4705631683581</v>
@@ -37794,10 +37794,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O41" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P41" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q41" t="n">
         <v>174.9454168930224</v>
@@ -37858,7 +37858,7 @@
         <v>19.83362883917277</v>
       </c>
       <c r="J42" t="n">
-        <v>78.1921444955037</v>
+        <v>265.9141959634919</v>
       </c>
       <c r="K42" t="n">
         <v>146.4712726566761</v>
@@ -37870,7 +37870,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N42" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O42" t="n">
         <v>225.6457316364854</v>
@@ -37879,7 +37879,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.4678893200653</v>
+        <v>110.7458378520768</v>
       </c>
       <c r="R42" t="n">
         <v>147.7778716178918</v>
@@ -37940,22 +37940,22 @@
         <v>120.0580381090396</v>
       </c>
       <c r="K43" t="n">
-        <v>80.89736747135721</v>
+        <v>330.6777807178441</v>
       </c>
       <c r="L43" t="n">
-        <v>108.4295583004043</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M43" t="n">
-        <v>524.2026707533557</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N43" t="n">
-        <v>515.4707078526358</v>
+        <v>113.4172504365951</v>
       </c>
       <c r="O43" t="n">
-        <v>441.2161734517114</v>
+        <v>306.7271431490266</v>
       </c>
       <c r="P43" t="n">
-        <v>83.65772357345456</v>
+        <v>399.5730817283107</v>
       </c>
       <c r="Q43" t="n">
         <v>201.69853761244</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J45" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K45" t="n">
         <v>146.4712726566761</v>
@@ -38104,7 +38104,7 @@
         <v>204.5521491764708</v>
       </c>
       <c r="M45" t="n">
-        <v>524.2026707533556</v>
+        <v>241.8799737025141</v>
       </c>
       <c r="N45" t="n">
         <v>250.6468722224273</v>
@@ -38119,7 +38119,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R45" t="n">
-        <v>53.17722603503828</v>
+        <v>147.7778716178918</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38183,19 +38183,19 @@
         <v>488.6203599076417</v>
       </c>
       <c r="M46" t="n">
-        <v>524.2026707533556</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N46" t="n">
         <v>113.4172504365951</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P46" t="n">
-        <v>195.5311708358726</v>
+        <v>376.2602794335017</v>
       </c>
       <c r="Q46" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
